--- a/medicine/Handicap/Lunettes_pour_dyslexiques/Lunettes_pour_dyslexiques.xlsx
+++ b/medicine/Handicap/Lunettes_pour_dyslexiques/Lunettes_pour_dyslexiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Des lunettes pour dyslexiques sont des lunettes conçues pour compenser les troubles visuels rencontrés par des personnes dyslexiques.
 </t>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, une étude scientifique est menée par deux chercheurs de l'Université de Rennes, Guy Ropars et Albert le Floch, qui cherchent à comprendre les causes et le fonctionnement de la dyslexie, se traduisant par un trouble spécifique du langage et des apprentissages et troubles dys[1].
-Cette étude controversée[2],[3], aboutit à une hypothèse : les troubles visuels rencontrés par des personnes dyslexiques pourraient s'expliquer par les tâches de Maxwell trop symétriques entre les deux yeux, appelé le syndrome des yeux « trop parfaits », qui empêchent le cerveau de filtrer les images miroirs et donc de distinguer correctement les lettres[4],[5],[6],[7],[8].
-En 2018, Atol incube la start-up Abeye et lance des programmes de recherche avec une mission précise : proposer à la coopérative d'opticiens des montures de lunettes pour répondre à des enjeux de santé et de sécurité[9].
-La dyslexie constitue alors l'un des principaux sujets de recherche pour Abeye. La start-up s'appuie par la suite sur les travaux conduits par les chercheurs de l'Université de Rennes pour répondre à cette mission[10],[11].
-Fin 2020, les lunettes Lexilens sont commercialisées. Elles sont composées de verres électroniques. La promesse est de compenser les troubles de la lecture chez des personnes dyslexiques, enfants comme adultes. Une étude réalisée par Ipsos et commanditée par Atol indique que ce sont d'ailleurs 8 porteurs sur 10 qui recommandent les lunettes Lexilens[12],[13],[14],[15],[16],[17],[18],[19],[20].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, une étude scientifique est menée par deux chercheurs de l'Université de Rennes, Guy Ropars et Albert le Floch, qui cherchent à comprendre les causes et le fonctionnement de la dyslexie, se traduisant par un trouble spécifique du langage et des apprentissages et troubles dys.
+Cette étude controversée aboutit à une hypothèse : les troubles visuels rencontrés par des personnes dyslexiques pourraient s'expliquer par les tâches de Maxwell trop symétriques entre les deux yeux, appelé le syndrome des yeux « trop parfaits », qui empêchent le cerveau de filtrer les images miroirs et donc de distinguer correctement les lettres.
+En 2018, Atol incube la start-up Abeye et lance des programmes de recherche avec une mission précise : proposer à la coopérative d'opticiens des montures de lunettes pour répondre à des enjeux de santé et de sécurité.
+La dyslexie constitue alors l'un des principaux sujets de recherche pour Abeye. La start-up s'appuie par la suite sur les travaux conduits par les chercheurs de l'Université de Rennes pour répondre à cette mission,.
+Fin 2020, les lunettes Lexilens sont commercialisées. Elles sont composées de verres électroniques. La promesse est de compenser les troubles de la lecture chez des personnes dyslexiques, enfants comme adultes. Une étude réalisée par Ipsos et commanditée par Atol indique que ce sont d'ailleurs 8 porteurs sur 10 qui recommandent les lunettes Lexilens.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Principe de fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lunettes Lexilens sont dotées de filtres actifs, qui enlèvent cette image miroir perçue par les personnes dyslexiques. Un système électronique intégré dans les verres commande ces filtres, tandis que la monture est équipée d'une batterie de taille réduite[21],[22],[23].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lunettes Lexilens sont dotées de filtres actifs, qui enlèvent cette image miroir perçue par les personnes dyslexiques. Un système électronique intégré dans les verres commande ces filtres, tandis que la monture est équipée d'une batterie de taille réduite.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'autre part, aucune étude rigoureuse n'a permis d'établir l'efficacité de ce type de dispositif[24],[25],[26].
-Le Conseil scientifique de l’éducation nationale estime par ailleurs qu’il n’y a pas lieu de diffuser ces dispositifs au sein de l’éducation nationale. Il rappelle qu’actuellement, seule la prise en charge en orthophonie est recommandée par la haute autorité de la santé pour les enfants dyslexiques[27].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autre part, aucune étude rigoureuse n'a permis d'établir l'efficacité de ce type de dispositif.
+Le Conseil scientifique de l’éducation nationale estime par ailleurs qu’il n’y a pas lieu de diffuser ces dispositifs au sein de l’éducation nationale. Il rappelle qu’actuellement, seule la prise en charge en orthophonie est recommandée par la haute autorité de la santé pour les enfants dyslexiques.
 </t>
         </is>
       </c>
